--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Asset Name</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Buds</t>
-  </si>
-  <si>
-    <t>Good</t>
   </si>
   <si>
     <t>5000</t>
@@ -152,6 +149,15 @@
   </si>
   <si>
     <t>admin2@mail.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -713,7 +719,7 @@
   <dimension ref="A1:AR999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -765,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>5</v>
@@ -777,49 +783,49 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -827,37 +833,37 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -865,37 +871,37 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -903,37 +909,37 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1008,7 +1014,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="J9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:44">

--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Asset Name</t>
   </si>
@@ -151,13 +151,10 @@
     <t>admin2@mail.com</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Good</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -719,7 +716,7 @@
   <dimension ref="A1:AR999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>25</v>
@@ -933,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>28</v>

--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -182,16 +182,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -306,33 +307,56 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -366,30 +390,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -404,25 +404,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:L6">
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
     <filterColumn colId="11"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="Asset Name" dataDxfId="10"/>
-    <tableColumn id="2" name="Asset Code" dataDxfId="9"/>
-    <tableColumn id="3" name="Asset Location" dataDxfId="8"/>
-    <tableColumn id="4" name="Asset Category" dataDxfId="7"/>
-    <tableColumn id="16" name="Capitalization Price" dataDxfId="6"/>
-    <tableColumn id="17" name="Capitalization Date" dataDxfId="5"/>
-    <tableColumn id="18" name="Life in years" dataDxfId="4"/>
-    <tableColumn id="19" name="Salvage Value" dataDxfId="3"/>
-    <tableColumn id="20" name="Depreciation%" dataDxfId="2"/>
+    <tableColumn id="1" name="Asset Name" dataDxfId="11"/>
+    <tableColumn id="2" name="Asset Code" dataDxfId="10"/>
+    <tableColumn id="3" name="Asset Location" dataDxfId="9"/>
+    <tableColumn id="4" name="Asset Category" dataDxfId="8"/>
+    <tableColumn id="16" name="Capitalization Price" dataDxfId="7"/>
+    <tableColumn id="17" name="Capitalization Date" dataDxfId="6"/>
+    <tableColumn id="18" name="Life in years" dataDxfId="5"/>
+    <tableColumn id="19" name="Salvage Value" dataDxfId="4"/>
+    <tableColumn id="20" name="Depreciation%" dataDxfId="3"/>
     <tableColumn id="5" name="Status"/>
-    <tableColumn id="26" name="Put Use Date" dataDxfId="1"/>
-    <tableColumn id="27" name="Asset User" dataDxfId="0"/>
+    <tableColumn id="26" name="Put Use Date" dataDxfId="2"/>
+    <tableColumn id="27" name="Asset User" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -716,7 +716,7 @@
   <dimension ref="A1:AR999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,16 +749,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -779,163 +779,163 @@
       <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1"/>
@@ -1015,19 +1015,19 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="AO11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="4"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="AO13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="4"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="AO14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="4"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1"/>

--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -196,7 +196,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,14 +217,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,51 +318,29 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -390,6 +374,30 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -404,25 +412,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:L6">
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
     <filterColumn colId="11"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="Asset Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Asset Code" dataDxfId="10"/>
-    <tableColumn id="3" name="Asset Location" dataDxfId="9"/>
-    <tableColumn id="4" name="Asset Category" dataDxfId="8"/>
-    <tableColumn id="16" name="Capitalization Price" dataDxfId="7"/>
-    <tableColumn id="17" name="Capitalization Date" dataDxfId="6"/>
-    <tableColumn id="18" name="Life in years" dataDxfId="5"/>
-    <tableColumn id="19" name="Salvage Value" dataDxfId="4"/>
-    <tableColumn id="20" name="Depreciation%" dataDxfId="3"/>
+    <tableColumn id="1" name="Asset Name" dataDxfId="10"/>
+    <tableColumn id="2" name="Asset Code" dataDxfId="9"/>
+    <tableColumn id="3" name="Asset Location" dataDxfId="8"/>
+    <tableColumn id="4" name="Asset Category" dataDxfId="7"/>
+    <tableColumn id="16" name="Capitalization Price" dataDxfId="6"/>
+    <tableColumn id="17" name="Capitalization Date" dataDxfId="5"/>
+    <tableColumn id="18" name="Life in years" dataDxfId="4"/>
+    <tableColumn id="19" name="Salvage Value" dataDxfId="3"/>
+    <tableColumn id="20" name="Depreciation%" dataDxfId="2"/>
     <tableColumn id="5" name="Status"/>
-    <tableColumn id="26" name="Put Use Date" dataDxfId="2"/>
-    <tableColumn id="27" name="Asset User" dataDxfId="1"/>
+    <tableColumn id="26" name="Put Use Date" dataDxfId="1"/>
+    <tableColumn id="27" name="Asset User" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -716,7 +724,7 @@
   <dimension ref="A1:AR999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -749,208 +757,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="M6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="1"/>
@@ -1015,19 +1025,19 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="AO11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="3"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="AO13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="3"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="AO14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="3"/>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="1"/>

--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Asset Item</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Salvage Value</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,6 +466,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Asset" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Multiple Asset'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Multiple Asset'!$A$1:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Asset Item</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Salvage Value</t>
+  </si>
+  <si>
+    <t>Asset Code</t>
+  </si>
+  <si>
+    <t>SAP Code</t>
   </si>
   <si>
     <t>DD/MM/YYYY</t>
@@ -56,29 +62,186 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,8 +254,194 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,28 +453,322 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,33 +1051,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="19.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="17.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="18.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,14 +1110,23 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="7:7">
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:J2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/assets/files/AssetUpload.xlsx
+++ b/src/assets/files/AssetUpload.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Asset Item</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>SAP Code</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
   <si>
     <t>DD/MM/YYYY</t>
@@ -68,7 +71,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +87,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,54 +110,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,90 +184,54 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,181 +252,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +457,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -472,20 +483,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +516,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,188 +554,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1077,9 +1074,10 @@
     <col min="10" max="10" width="17.7142857142857" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" customWidth="1"/>
     <col min="12" max="12" width="18.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="18.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,11 +1113,14 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="7:7">
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
